--- a/src/UM5MES03.xlsx
+++ b/src/UM5MES03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/UE-test/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/master-mecanique/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838527D3-11F6-0944-958D-4D3DD61CA813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAD3D16-6275-2F43-86B3-7F7F615006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -930,8 +930,8 @@
       <c r="B21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>75</v>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -945,8 +945,8 @@
       <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/UM5MES03.xlsx
+++ b/src/UM5MES03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/master-mecanique/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAD3D16-6275-2F43-86B3-7F7F615006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8362B1-8B0C-5149-B6E3-6AB176A7806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
+    <workbookView xWindow="-740" yWindow="7740" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Code UE</t>
   </si>
@@ -286,6 +286,12 @@
   <si>
     <t>Short review of linear elasticity and its variational formulation; stress criteria and defects in linear elasticity;  stress singularities; fracture modes; fracture toughness; Irwin criterion; energetic (variational) approach to fracture, Griffith’s theory; Numerical computation of the energy release rate; G-theta method (domain derivative); Irwin frmula; crack propagation, fatigue.
 $$\min_u\mathcal{E}(u)$$</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Nom de fichier pour une image</t>
   </si>
 </sst>
 </file>
@@ -718,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE972D-CC80-CB4D-81F7-9FC0AA1100CF}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,6 +1047,14 @@
       </c>
       <c r="B32" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/UM5MES03.xlsx
+++ b/src/UM5MES03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurini/Cloud/drop-su/Enseignement/master/fichesUE/master-mecanique/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8362B1-8B0C-5149-B6E3-6AB176A7806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3EE61F-D1FE-C049-9F45-75A1030192E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-740" yWindow="7740" windowWidth="38400" windowHeight="21100" xr2:uid="{946D5765-8A67-8240-B7B5-AEFFB1FB0322}"/>
   </bookViews>
@@ -291,7 +291,7 @@
     <t>image</t>
   </si>
   <si>
-    <t>Nom de fichier pour une image</t>
+    <t>Nom de fichier pour une image (png format)</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
